--- a/kitap-veri-seti/results12-15.xlsx
+++ b/kitap-veri-seti/results12-15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\analiz1\wetransfer_data_2024-08-01_1437\BookData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\deneme3\kitapmetre-2024AcikHackTDDI\kitap-veri-seti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Dosya Adı</t>
   </si>
@@ -497,7 +497,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="Q14" sqref="A2:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,6 +1240,9 @@
       <c r="P14">
         <v>3.8636175461107217E-2</v>
       </c>
+      <c r="Q14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
